--- a/data/trans_orig/P25D_R2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>17019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8652</v>
+        <v>8959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30889</v>
+        <v>31270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03096117630848366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01574022793614218</v>
+        <v>0.01629802566131776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0561951934868214</v>
+        <v>0.05688683723221082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>8139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3941</v>
+        <v>3870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16708</v>
+        <v>17011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01669438881990943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008084426189761221</v>
+        <v>0.007938497677531615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03427120234954902</v>
+        <v>0.03489292400266017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>25158</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14904</v>
+        <v>15732</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41255</v>
+        <v>40910</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02425535551393093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01436997192621085</v>
+        <v>0.01516776593202836</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03977529146846463</v>
+        <v>0.03944320715875465</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>532663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>518793</v>
+        <v>518412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541030</v>
+        <v>540723</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9690388236915164</v>
+        <v>0.9690388236915162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9438048065131789</v>
+        <v>0.9431131627677891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.984259772063858</v>
+        <v>0.9837019743386826</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>676</v>
@@ -833,19 +833,19 @@
         <v>479374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>470805</v>
+        <v>470502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>483572</v>
+        <v>483643</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9833056111800906</v>
+        <v>0.9833056111800905</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9657287976504531</v>
+        <v>0.9651070759973402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9919155738102389</v>
+        <v>0.9920615023224685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1217</v>
@@ -854,19 +854,19 @@
         <v>1012037</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>995940</v>
+        <v>996285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1022291</v>
+        <v>1021463</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9757446444860691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9602247085315353</v>
+        <v>0.9605567928412454</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856300280737889</v>
+        <v>0.9848322340679716</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>13784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6874</v>
+        <v>6104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24957</v>
+        <v>25559</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02865635380671571</v>
+        <v>0.02865635380671572</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01429143938165107</v>
+        <v>0.01268888056118531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05188417423309457</v>
+        <v>0.05313602637443385</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>9272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5003</v>
+        <v>4934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16029</v>
+        <v>15487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02194864037724287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01184440455300871</v>
+        <v>0.01168021962333905</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03794362133120199</v>
+        <v>0.03666181855171527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1000,19 +1000,19 @@
         <v>23056</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15127</v>
+        <v>14337</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36393</v>
+        <v>36734</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02551995763837205</v>
+        <v>0.02551995763837204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01674331871222361</v>
+        <v>0.01586958854841846</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04028213912082972</v>
+        <v>0.04066011936256437</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>467228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456055</v>
+        <v>455453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474138</v>
+        <v>474908</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9713436461932843</v>
+        <v>0.9713436461932844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9481158257669057</v>
+        <v>0.9468639736255662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985708560618349</v>
+        <v>0.987311119438815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -1050,19 +1050,19 @@
         <v>413162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406405</v>
+        <v>406947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>417431</v>
+        <v>417500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9780513596227571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9620563786687973</v>
+        <v>0.9633381814482848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9881555954469911</v>
+        <v>0.9883197803766609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -1071,19 +1071,19 @@
         <v>880390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867053</v>
+        <v>866712</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>888319</v>
+        <v>889109</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.974480042361628</v>
+        <v>0.9744800423616279</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9597178608791701</v>
+        <v>0.9593398806374355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9832566812877763</v>
+        <v>0.9841304114515815</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>10265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4988</v>
+        <v>4770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19754</v>
+        <v>18036</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02176656545098026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01057661685214879</v>
+        <v>0.0101141090666792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04188664835260089</v>
+        <v>0.038244360222474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>5230</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2195</v>
+        <v>2319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12443</v>
+        <v>11986</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02799596089675393</v>
+        <v>0.02799596089675392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01174977317839673</v>
+        <v>0.01241113957488236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06660002434343631</v>
+        <v>0.06415528545115859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1217,19 +1217,19 @@
         <v>15496</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9073</v>
+        <v>9047</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24729</v>
+        <v>24884</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02353412226030984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0137789845429074</v>
+        <v>0.01374031241717626</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03755667693699486</v>
+        <v>0.03779176648836484</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>461347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>451858</v>
+        <v>453576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>466624</v>
+        <v>466842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782334345490198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9581133516473981</v>
+        <v>0.9617556397775258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9894233831478513</v>
+        <v>0.9898858909333204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -1267,19 +1267,19 @@
         <v>181599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174386</v>
+        <v>174843</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184634</v>
+        <v>184510</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9720040391032462</v>
+        <v>0.9720040391032461</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9333999756565641</v>
+        <v>0.9358447145488415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9882502268216034</v>
+        <v>0.9875888604251177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>760</v>
@@ -1288,19 +1288,19 @@
         <v>642944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633711</v>
+        <v>633556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649367</v>
+        <v>649393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9764658777396903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9624433230630052</v>
+        <v>0.9622082335116351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9862210154570927</v>
+        <v>0.9862596875828238</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>46067</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30297</v>
+        <v>29823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67082</v>
+        <v>67477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04081664088231104</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02684393837265183</v>
+        <v>0.02642377550085925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05943623122261877</v>
+        <v>0.0597866031538113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1413,19 +1413,19 @@
         <v>25697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16331</v>
+        <v>15826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40663</v>
+        <v>40486</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02993681915009401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01902581368400179</v>
+        <v>0.01843735265852666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04737195555808619</v>
+        <v>0.04716632641373301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1434,19 +1434,19 @@
         <v>71764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50863</v>
+        <v>51471</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96122</v>
+        <v>93959</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03611663801488538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02559777257713789</v>
+        <v>0.02590354989552241</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04837531352552717</v>
+        <v>0.04728684349312301</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1082568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1061553</v>
+        <v>1061158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1098338</v>
+        <v>1098812</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9591833591176889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9405637687773811</v>
+        <v>0.9402133968461888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.973156061627348</v>
+        <v>0.9735762244991405</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1204</v>
@@ -1484,19 +1484,19 @@
         <v>832676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>817710</v>
+        <v>817887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>842042</v>
+        <v>842547</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9700631808499061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9526280444419137</v>
+        <v>0.952833673586267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9809741863159981</v>
+        <v>0.9815626473414732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2292</v>
@@ -1505,19 +1505,19 @@
         <v>1915243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1890885</v>
+        <v>1893048</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1936144</v>
+        <v>1935536</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9638833619851147</v>
+        <v>0.9638833619851145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9516246864744733</v>
+        <v>0.9527131565068766</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9744022274228623</v>
+        <v>0.9740964501044772</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>15611</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7618</v>
+        <v>7272</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31569</v>
+        <v>27961</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.027592374488067</v>
+        <v>0.02759237448806699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01346533581697696</v>
+        <v>0.01285276888414075</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05579770842907269</v>
+        <v>0.04941918396512445</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1630,19 +1630,19 @@
         <v>6492</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2950</v>
+        <v>2487</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13557</v>
+        <v>13816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007826875346201674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003555910785679278</v>
+        <v>0.00299815102731131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01634452306067313</v>
+        <v>0.01665635344691996</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1651,19 +1651,19 @@
         <v>22104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12364</v>
+        <v>12919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38283</v>
+        <v>37627</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01584188821569124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008861132821708612</v>
+        <v>0.009259553065514309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02743825890478086</v>
+        <v>0.02696766511131672</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>550173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>534215</v>
+        <v>537823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>558166</v>
+        <v>558512</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9724076255119329</v>
+        <v>0.9724076255119332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9442022915709272</v>
+        <v>0.9505808160348755</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9865346641830228</v>
+        <v>0.987147231115859</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1280</v>
@@ -1701,19 +1701,19 @@
         <v>822981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>815916</v>
+        <v>815657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>826523</v>
+        <v>826986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9921731246537984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9836554769393253</v>
+        <v>0.98334364655308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9964440892143207</v>
+        <v>0.9970018489726887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1815</v>
@@ -1722,19 +1722,19 @@
         <v>1373153</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1356974</v>
+        <v>1357630</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1382893</v>
+        <v>1382338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9841581117843087</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9725617410952192</v>
+        <v>0.9730323348886832</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9911388671782915</v>
+        <v>0.9907404469344857</v>
       </c>
     </row>
     <row r="18">
@@ -1829,16 +1829,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19120</v>
+        <v>18453</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02278436847232415</v>
+        <v>0.02278436847232416</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08097407083221787</v>
+        <v>0.07814855026465499</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1847,19 +1847,19 @@
         <v>17121</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8701</v>
+        <v>8954</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32067</v>
+        <v>33005</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02029528697587837</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01031473285752047</v>
+        <v>0.01061412695852716</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03801285020311602</v>
+        <v>0.03912464843219383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -1868,19 +1868,19 @@
         <v>22501</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11853</v>
+        <v>12239</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39645</v>
+        <v>40102</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02083963777838007</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.010978206493949</v>
+        <v>0.01133510403259957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0367175062295166</v>
+        <v>0.03714066386597348</v>
       </c>
     </row>
     <row r="20">
@@ -1897,16 +1897,16 @@
         <v>230750</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217010</v>
+        <v>217677</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>236130</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9772156315276758</v>
+        <v>0.9772156315276759</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9190259291677823</v>
+        <v>0.9218514497353453</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>826469</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>811523</v>
+        <v>810585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>834889</v>
+        <v>834636</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9797047130241219</v>
+        <v>0.9797047130241215</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9619871497968843</v>
+        <v>0.9608753515678061</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9896852671424797</v>
+        <v>0.989385873041473</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1254</v>
@@ -1939,19 +1939,19 @@
         <v>1057219</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1040075</v>
+        <v>1039618</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1067867</v>
+        <v>1067481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.97916036222162</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9632824937704838</v>
+        <v>0.962859336134027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.989021793506051</v>
+        <v>0.9886648959674009</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>108127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83367</v>
+        <v>82586</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137543</v>
+        <v>138457</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03149760604702981</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02428518617485713</v>
+        <v>0.02405748861910905</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04006676667890678</v>
+        <v>0.04033281365990728</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -2064,19 +2064,19 @@
         <v>71951</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55713</v>
+        <v>55084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93068</v>
+        <v>92061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01983100074296257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01535556174252867</v>
+        <v>0.01518225102561305</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02565116327783495</v>
+        <v>0.02537356035813394</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -2085,19 +2085,19 @@
         <v>180078</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>149077</v>
+        <v>148758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216885</v>
+        <v>216632</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02550291486871136</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0211125275670476</v>
+        <v>0.02106736013186102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0307156309857523</v>
+        <v>0.03067978830840136</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3324727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3295311</v>
+        <v>3294397</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3349487</v>
+        <v>3350268</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9685023939529704</v>
+        <v>0.9685023939529703</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9599332333210929</v>
+        <v>0.9596671863400926</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9757148138251428</v>
+        <v>0.9759425113808911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5162</v>
@@ -2135,19 +2135,19 @@
         <v>3556260</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3535143</v>
+        <v>3536150</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3572498</v>
+        <v>3573127</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9801689992570373</v>
+        <v>0.9801689992570375</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9743488367221651</v>
+        <v>0.9746264396418673</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9846444382574713</v>
+        <v>0.9848177489743871</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8383</v>
@@ -2156,19 +2156,19 @@
         <v>6880988</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6844181</v>
+        <v>6844434</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6911989</v>
+        <v>6912308</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9744970851312885</v>
+        <v>0.9744970851312886</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9692843690142475</v>
+        <v>0.9693202116915987</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.978887472432952</v>
+        <v>0.9789326398681393</v>
       </c>
     </row>
     <row r="24">
